--- a/_downloads/cf9f1887499f2b7a093a867bf253ad56/plants.xlsx
+++ b/_downloads/cf9f1887499f2b7a093a867bf253ad56/plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssubedi2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\GoogleDrive\My writings\Onlinenotes\ML22\ChapterApp\assests\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E351FB-3C9E-40F1-824B-1329630C9F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9947372D-DAA0-4297-B5B1-44B831741856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{686DB11D-D174-473C-A208-A7E42B1F5339}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{686DB11D-D174-473C-A208-A7E42B1F5339}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="36">
   <si>
     <t>SN</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Fresh</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>Variables</t>
@@ -505,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,15 +513,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,15 +585,15 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA155A-F563-4FFA-A91E-F7B86929880D}">
   <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:K150"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -629,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -644,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -656,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -664,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -691,7 +690,7 @@
         <v>5.68</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -699,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -726,7 +725,7 @@
         <v>5.16</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -734,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -761,7 +760,7 @@
         <v>5.57</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -796,7 +795,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -804,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -831,7 +830,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -839,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -866,7 +865,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -901,7 +900,7 @@
         <v>5.04</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -909,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -936,7 +935,7 @@
         <v>6.36</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -971,7 +970,7 @@
         <v>5.57</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -979,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1006,7 +1005,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1014,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1041,7 +1040,7 @@
         <v>5.23</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1049,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1076,7 +1075,7 @@
         <v>5.55</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1111,7 +1110,7 @@
         <v>5.96</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1146,7 +1145,7 @@
         <v>5.8</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1154,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1181,7 +1180,7 @@
         <v>6.02</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1189,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1216,7 +1215,7 @@
         <v>6.02</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1224,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1251,7 +1250,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1259,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1286,7 +1285,7 @@
         <v>5.96</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1294,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1321,7 +1320,7 @@
         <v>5.78</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1329,7 +1328,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1356,7 +1355,7 @@
         <v>5.47</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1391,7 +1390,7 @@
         <v>5.99</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1399,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1426,7 +1425,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1434,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1461,7 +1460,7 @@
         <v>5.8</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1496,7 +1495,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1531,7 +1530,7 @@
         <v>4.68</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1539,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1566,7 +1565,7 @@
         <v>6.24</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1574,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1601,7 +1600,7 @@
         <v>5.24</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1609,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1636,7 +1635,7 @@
         <v>5.84</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1644,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1671,7 +1670,7 @@
         <v>4.16</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1679,7 +1678,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1706,7 +1705,7 @@
         <v>4.74</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,7 +1713,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1746,7 +1745,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1773,7 +1772,7 @@
         <v>3.48</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,7 +1780,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1808,7 +1807,7 @@
         <v>6.13</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1848,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1875,7 +1874,7 @@
         <v>6.14</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1883,7 +1882,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1910,7 +1909,7 @@
         <v>5.13</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,7 +1917,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1945,7 +1944,7 @@
         <v>5.94</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,7 +1952,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1980,7 +1979,7 @@
         <v>5.49</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,7 +1987,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2015,7 +2014,7 @@
         <v>5.03</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2022,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2050,7 +2049,7 @@
         <v>5.58</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,7 +2057,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2085,7 +2084,7 @@
         <v>5.12</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,7 +2092,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2120,7 +2119,7 @@
         <v>5.58</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2128,7 +2127,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2155,7 +2154,7 @@
         <v>6.03</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,7 +2162,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2190,7 +2189,7 @@
         <v>5.28</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2198,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2225,7 +2224,7 @@
         <v>5.34</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -2260,7 +2259,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2268,7 +2267,7 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -2300,7 +2299,7 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -2327,7 +2326,7 @@
         <v>5.59</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2335,7 +2334,7 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -2362,7 +2361,7 @@
         <v>3.81</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2370,7 +2369,7 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -2402,7 +2401,7 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -2434,7 +2433,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2461,7 +2460,7 @@
         <v>3.77</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,7 +2468,7 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2496,7 +2495,7 @@
         <v>3.8</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2504,7 +2503,7 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -2531,7 +2530,7 @@
         <v>3.81</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,7 +2538,7 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2566,7 +2565,7 @@
         <v>4.42</v>
       </c>
       <c r="K56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,7 +2573,7 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2601,7 +2600,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="K57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,7 +2608,7 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2641,7 +2640,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2668,7 +2667,7 @@
         <v>3.85</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2676,7 +2675,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2703,7 +2702,7 @@
         <v>5.05</v>
       </c>
       <c r="K60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2711,7 +2710,7 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2738,7 +2737,7 @@
         <v>4.2</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2746,7 +2745,7 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -2773,7 +2772,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,7 +2780,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -2808,7 +2807,7 @@
         <v>5.63</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2816,7 +2815,7 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2843,7 +2842,7 @@
         <v>5.09</v>
       </c>
       <c r="K64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2851,7 +2850,7 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -2878,7 +2877,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,7 +2885,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2913,7 +2912,7 @@
         <v>4.91</v>
       </c>
       <c r="K66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2921,7 +2920,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -2948,7 +2947,7 @@
         <v>3.93</v>
       </c>
       <c r="K67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2956,7 +2955,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2983,7 +2982,7 @@
         <v>5.5</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2991,7 +2990,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3018,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="K69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3026,7 +3025,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3053,7 +3052,7 @@
         <v>5.22</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3061,7 +3060,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3088,7 +3087,7 @@
         <v>4.96</v>
       </c>
       <c r="K71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3096,7 +3095,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3123,7 +3122,7 @@
         <v>4.22</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,7 +3130,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3158,7 +3157,7 @@
         <v>3.88</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3166,7 +3165,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3193,7 +3192,7 @@
         <v>5.18</v>
       </c>
       <c r="K74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,7 +3200,7 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3228,7 +3227,7 @@
         <v>5.89</v>
       </c>
       <c r="K75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3236,7 +3235,7 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3263,7 +3262,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="K76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3271,7 +3270,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3298,7 +3297,7 @@
         <v>5.69</v>
       </c>
       <c r="K77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3306,7 +3305,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3333,7 +3332,7 @@
         <v>3.93</v>
       </c>
       <c r="K78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,7 +3340,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3368,7 +3367,7 @@
         <v>3.64</v>
       </c>
       <c r="K79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3376,7 +3375,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3403,7 +3402,7 @@
         <v>3.36</v>
       </c>
       <c r="K80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3411,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3438,7 +3437,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3446,7 +3445,7 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -3478,7 +3477,7 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -3510,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -3537,7 +3536,7 @@
         <v>5.94</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3545,7 +3544,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -3577,7 +3576,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -3604,7 +3603,7 @@
         <v>6.04</v>
       </c>
       <c r="K86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3612,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -3639,7 +3638,7 @@
         <v>6.01</v>
       </c>
       <c r="K87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,7 +3646,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -3674,7 +3673,7 @@
         <v>5.52</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,7 +3681,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -3709,7 +3708,7 @@
         <v>5.23</v>
       </c>
       <c r="K89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3717,7 +3716,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -3744,7 +3743,7 @@
         <v>5.38</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3752,7 +3751,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -3779,7 +3778,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="K91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3787,7 +3786,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -3814,7 +3813,7 @@
         <v>5.6</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3822,7 +3821,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -3849,7 +3848,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="K93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3857,7 +3856,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -3889,7 +3888,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -3916,7 +3915,7 @@
         <v>5.22</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,7 +3923,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -3956,7 +3955,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -3983,7 +3982,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3991,7 +3990,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -4018,7 +4017,7 @@
         <v>4.24</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4026,7 +4025,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -4053,7 +4052,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4061,7 +4060,7 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4088,7 +4087,7 @@
         <v>7.82</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4096,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4123,7 +4122,7 @@
         <v>4.68</v>
       </c>
       <c r="K101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,7 +4130,7 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -4158,7 +4157,7 @@
         <v>5.2</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,7 +4165,7 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4193,7 +4192,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="K103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4201,7 +4200,7 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -4228,7 +4227,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,7 +4235,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -4268,7 +4267,7 @@
         <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -4295,7 +4294,7 @@
         <v>6.48</v>
       </c>
       <c r="K106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4303,7 +4302,7 @@
         <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -4330,7 +4329,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="K107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4338,7 +4337,7 @@
         <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -4370,7 +4369,7 @@
         <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -4402,7 +4401,7 @@
         <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -4429,7 +4428,7 @@
         <v>4.49</v>
       </c>
       <c r="K110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,7 +4436,7 @@
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -4469,7 +4468,7 @@
         <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -4496,7 +4495,7 @@
         <v>4.93</v>
       </c>
       <c r="K112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,7 +4503,7 @@
         <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -4531,7 +4530,7 @@
         <v>3.38</v>
       </c>
       <c r="K113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4539,7 +4538,7 @@
         <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -4566,7 +4565,7 @@
         <v>4.01</v>
       </c>
       <c r="K114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,7 +4573,7 @@
         <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -4601,7 +4600,7 @@
         <v>3.82</v>
       </c>
       <c r="K115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4609,7 +4608,7 @@
         <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -4636,7 +4635,7 @@
         <v>5.57</v>
       </c>
       <c r="K116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4644,7 +4643,7 @@
         <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -4671,7 +4670,7 @@
         <v>3.69</v>
       </c>
       <c r="K117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4679,7 +4678,7 @@
         <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -4706,7 +4705,7 @@
         <v>4.45</v>
       </c>
       <c r="K118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4714,7 +4713,7 @@
         <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -4741,7 +4740,7 @@
         <v>4.88</v>
       </c>
       <c r="K119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4749,7 +4748,7 @@
         <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -4776,7 +4775,7 @@
         <v>4.46</v>
       </c>
       <c r="K120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4784,7 +4783,7 @@
         <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -4811,7 +4810,7 @@
         <v>5.82</v>
       </c>
       <c r="K121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -4819,7 +4818,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -4846,7 +4845,7 @@
         <v>5.14</v>
       </c>
       <c r="K122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -4854,7 +4853,7 @@
         <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -4881,7 +4880,7 @@
         <v>5.44</v>
       </c>
       <c r="K123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4889,7 +4888,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -4916,7 +4915,7 @@
         <v>3.92</v>
       </c>
       <c r="K124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4924,7 +4923,7 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -4951,7 +4950,7 @@
         <v>5.01</v>
       </c>
       <c r="K125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4959,7 +4958,7 @@
         <v>142</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -4986,7 +4985,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="K126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -4994,7 +4993,7 @@
         <v>143</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -5021,7 +5020,7 @@
         <v>5.04</v>
       </c>
       <c r="K127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5029,7 +5028,7 @@
         <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -5056,7 +5055,7 @@
         <v>4.91</v>
       </c>
       <c r="K128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5064,7 +5063,7 @@
         <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -5091,7 +5090,7 @@
         <v>4.24</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5099,7 +5098,7 @@
         <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
@@ -5126,7 +5125,7 @@
         <v>4.57</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5134,7 +5133,7 @@
         <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
@@ -5161,7 +5160,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5169,7 +5168,7 @@
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
@@ -5196,7 +5195,7 @@
         <v>5.8</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5204,7 +5203,7 @@
         <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -5231,7 +5230,7 @@
         <v>5.56</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5239,7 +5238,7 @@
         <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -5266,7 +5265,7 @@
         <v>6.03</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5274,7 +5273,7 @@
         <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -5301,7 +5300,7 @@
         <v>5.9</v>
       </c>
       <c r="K135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5309,7 +5308,7 @@
         <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -5336,7 +5335,7 @@
         <v>3.92</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5344,7 +5343,7 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -5371,7 +5370,7 @@
         <v>5.36</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5379,7 +5378,7 @@
         <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -5406,7 +5405,7 @@
         <v>5.67</v>
       </c>
       <c r="K138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5414,7 +5413,7 @@
         <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -5441,7 +5440,7 @@
         <v>5.8</v>
       </c>
       <c r="K139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5449,7 +5448,7 @@
         <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
@@ -5476,7 +5475,7 @@
         <v>6.23</v>
       </c>
       <c r="K140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5484,7 +5483,7 @@
         <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -5511,7 +5510,7 @@
         <v>6.23</v>
       </c>
       <c r="K141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5519,7 +5518,7 @@
         <v>160</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -5546,7 +5545,7 @@
         <v>5.78</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5554,7 +5553,7 @@
         <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -5581,7 +5580,7 @@
         <v>6.02</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -5589,7 +5588,7 @@
         <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -5616,7 +5615,7 @@
         <v>3.68</v>
       </c>
       <c r="K144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5624,7 +5623,7 @@
         <v>163</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
@@ -5651,7 +5650,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="K145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5659,7 +5658,7 @@
         <v>164</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
@@ -5686,7 +5685,7 @@
         <v>5.13</v>
       </c>
       <c r="K146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -5694,7 +5693,7 @@
         <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -5721,7 +5720,7 @@
         <v>6.02</v>
       </c>
       <c r="K147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5729,7 +5728,7 @@
         <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
@@ -5756,7 +5755,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="K148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5764,7 +5763,7 @@
         <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -5791,7 +5790,7 @@
         <v>5.01</v>
       </c>
       <c r="K149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -5799,7 +5798,7 @@
         <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -5821,6 +5820,9 @@
       </c>
       <c r="I150">
         <v>1</v>
+      </c>
+      <c r="J150">
+        <v>4.78</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -5828,7 +5830,7 @@
         <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -5855,7 +5857,7 @@
         <v>5.88</v>
       </c>
       <c r="K151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -5863,7 +5865,7 @@
         <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -5890,7 +5892,7 @@
         <v>5.57</v>
       </c>
       <c r="K152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -5898,7 +5900,7 @@
         <v>171</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -5925,7 +5927,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -5933,7 +5935,7 @@
         <v>172</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -5960,7 +5962,7 @@
         <v>3.34</v>
       </c>
       <c r="K154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -5968,7 +5970,7 @@
         <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -5995,7 +5997,7 @@
         <v>4.46</v>
       </c>
       <c r="K155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6003,7 +6005,7 @@
         <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -6030,7 +6032,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6038,7 +6040,7 @@
         <v>175</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -6065,7 +6067,7 @@
         <v>4.58</v>
       </c>
       <c r="K157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6073,7 +6075,7 @@
         <v>176</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -6100,7 +6102,7 @@
         <v>5.8</v>
       </c>
       <c r="K158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6108,7 +6110,7 @@
         <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
@@ -6135,7 +6137,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="K159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6143,7 +6145,7 @@
         <v>179</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -6170,7 +6172,7 @@
         <v>4.92</v>
       </c>
       <c r="K160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6178,7 +6180,7 @@
         <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -6205,7 +6207,7 @@
         <v>5.92</v>
       </c>
       <c r="K161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6213,7 +6215,7 @@
         <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -6240,7 +6242,7 @@
         <v>6.02</v>
       </c>
       <c r="K162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6248,7 +6250,7 @@
         <v>182</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
@@ -6275,7 +6277,7 @@
         <v>4.78</v>
       </c>
       <c r="K163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6283,7 +6285,7 @@
         <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
@@ -6310,7 +6312,7 @@
         <v>4.46</v>
       </c>
       <c r="K164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6318,7 +6320,7 @@
         <v>184</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -6345,7 +6347,7 @@
         <v>6</v>
       </c>
       <c r="K165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6353,7 +6355,7 @@
         <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -6380,7 +6382,7 @@
         <v>4.78</v>
       </c>
       <c r="K166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6388,7 +6390,7 @@
         <v>186</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -6415,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="K167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6423,7 +6425,7 @@
         <v>187</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -6450,7 +6452,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="K168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6458,7 +6460,7 @@
         <v>188</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -6485,7 +6487,7 @@
         <v>3.92</v>
       </c>
       <c r="K169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -6493,7 +6495,7 @@
         <v>189</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -6520,7 +6522,7 @@
         <v>3.14</v>
       </c>
       <c r="K170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -6528,7 +6530,7 @@
         <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -6555,7 +6557,7 @@
         <v>3.92</v>
       </c>
       <c r="K171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6563,7 +6565,7 @@
         <v>191</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
@@ -6590,7 +6592,7 @@
         <v>3.45</v>
       </c>
       <c r="K172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6598,7 +6600,7 @@
         <v>192</v>
       </c>
       <c r="B173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -6625,7 +6627,7 @@
         <v>5.8</v>
       </c>
       <c r="K173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -6633,7 +6635,7 @@
         <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -6660,7 +6662,7 @@
         <v>5.23</v>
       </c>
       <c r="K174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -6668,7 +6670,7 @@
         <v>195</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -6695,7 +6697,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6703,7 +6705,7 @@
         <v>196</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -6730,7 +6732,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -6738,7 +6740,7 @@
         <v>197</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
@@ -6765,7 +6767,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="K177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6773,7 +6775,7 @@
         <v>198</v>
       </c>
       <c r="B178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
@@ -6800,7 +6802,7 @@
         <v>3.46</v>
       </c>
       <c r="K178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -6808,7 +6810,7 @@
         <v>199</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -6835,7 +6837,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="K179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -6843,7 +6845,7 @@
         <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -6870,7 +6872,7 @@
         <v>5.24</v>
       </c>
       <c r="K180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -6878,7 +6880,7 @@
         <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -6905,7 +6907,7 @@
         <v>4.47</v>
       </c>
       <c r="K181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -6913,7 +6915,7 @@
         <v>203</v>
       </c>
       <c r="B182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -6940,7 +6942,7 @@
         <v>4.37</v>
       </c>
       <c r="K182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -6948,7 +6950,7 @@
         <v>204</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -6975,7 +6977,7 @@
         <v>4.16</v>
       </c>
       <c r="K183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -6983,7 +6985,7 @@
         <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -7010,7 +7012,7 @@
         <v>5.23</v>
       </c>
       <c r="K184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7018,7 +7020,7 @@
         <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -7045,7 +7047,7 @@
         <v>4.22</v>
       </c>
       <c r="K185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7053,7 +7055,7 @@
         <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -7080,7 +7082,7 @@
         <v>5.03</v>
       </c>
       <c r="K186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7088,7 +7090,7 @@
         <v>209</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -7115,7 +7117,7 @@
         <v>3.94</v>
       </c>
       <c r="K187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7123,7 +7125,7 @@
         <v>210</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -7150,7 +7152,7 @@
         <v>5.82</v>
       </c>
       <c r="K188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7158,7 +7160,7 @@
         <v>211</v>
       </c>
       <c r="B189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
@@ -7185,7 +7187,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="K189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7193,7 +7195,7 @@
         <v>212</v>
       </c>
       <c r="B190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
@@ -7220,7 +7222,7 @@
         <v>5.52</v>
       </c>
       <c r="K190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7228,7 +7230,7 @@
         <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
@@ -7255,7 +7257,7 @@
         <v>5.33</v>
       </c>
       <c r="K191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7263,7 +7265,7 @@
         <v>214</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -7290,7 +7292,7 @@
         <v>5.14</v>
       </c>
       <c r="K192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7298,7 +7300,7 @@
         <v>215</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -7325,7 +7327,7 @@
         <v>3.45</v>
       </c>
       <c r="K193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7333,7 +7335,7 @@
         <v>216</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
@@ -7360,7 +7362,7 @@
         <v>5.03</v>
       </c>
       <c r="K194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7368,7 +7370,7 @@
         <v>217</v>
       </c>
       <c r="B195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -7395,7 +7397,7 @@
         <v>5.56</v>
       </c>
       <c r="K195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7403,7 +7405,7 @@
         <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -7430,7 +7432,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -7438,7 +7440,7 @@
         <v>219</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -7465,7 +7467,7 @@
         <v>5.52</v>
       </c>
       <c r="K197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7473,7 +7475,7 @@
         <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -7500,7 +7502,7 @@
         <v>6.02</v>
       </c>
       <c r="K198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7508,7 +7510,7 @@
         <v>221</v>
       </c>
       <c r="B199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -7535,7 +7537,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7543,7 +7545,7 @@
         <v>223</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -7570,7 +7572,7 @@
         <v>5.29</v>
       </c>
       <c r="K200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -7578,7 +7580,7 @@
         <v>225</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -7605,7 +7607,7 @@
         <v>4.37</v>
       </c>
       <c r="K201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -7613,7 +7615,7 @@
         <v>226</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -7640,7 +7642,7 @@
         <v>4.91</v>
       </c>
       <c r="K202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -7648,7 +7650,7 @@
         <v>227</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -7675,7 +7677,7 @@
         <v>5.22</v>
       </c>
       <c r="K203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -7683,7 +7685,7 @@
         <v>228</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -7710,7 +7712,7 @@
         <v>5.22</v>
       </c>
       <c r="K204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -7718,7 +7720,7 @@
         <v>229</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -7745,7 +7747,7 @@
         <v>5.58</v>
       </c>
       <c r="K205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -7753,7 +7755,7 @@
         <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -7780,7 +7782,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -7788,7 +7790,7 @@
         <v>232</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -7815,7 +7817,7 @@
         <v>4.79</v>
       </c>
       <c r="K207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -7823,7 +7825,7 @@
         <v>233</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -7850,7 +7852,7 @@
         <v>4.82</v>
       </c>
       <c r="K208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -7858,7 +7860,7 @@
         <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -7885,7 +7887,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="K209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -7893,7 +7895,7 @@
         <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -7920,7 +7922,7 @@
         <v>5.33</v>
       </c>
       <c r="K210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -7928,7 +7930,7 @@
         <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C211" t="s">
         <v>9</v>
@@ -7955,7 +7957,7 @@
         <v>4.8</v>
       </c>
       <c r="K211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -7963,7 +7965,7 @@
         <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -7990,7 +7992,7 @@
         <v>5.56</v>
       </c>
       <c r="K212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -7998,7 +8000,7 @@
         <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -8025,7 +8027,7 @@
         <v>6.34</v>
       </c>
       <c r="K213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8033,7 +8035,7 @@
         <v>241</v>
       </c>
       <c r="B214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -8060,7 +8062,7 @@
         <v>3.88</v>
       </c>
       <c r="K214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8068,7 +8070,7 @@
         <v>242</v>
       </c>
       <c r="B215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -8095,7 +8097,7 @@
         <v>5.29</v>
       </c>
       <c r="K215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8103,7 +8105,7 @@
         <v>243</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -8130,7 +8132,7 @@
         <v>5.72</v>
       </c>
       <c r="K216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8138,7 +8140,7 @@
         <v>244</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -8165,7 +8167,7 @@
         <v>3.89</v>
       </c>
       <c r="K217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8173,7 +8175,7 @@
         <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C218" t="s">
         <v>13</v>
@@ -8200,7 +8202,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8208,7 +8210,7 @@
         <v>246</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -8235,7 +8237,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="K219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8243,7 +8245,7 @@
         <v>247</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
@@ -8270,7 +8272,7 @@
         <v>5.99</v>
       </c>
       <c r="K220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8278,7 +8280,7 @@
         <v>249</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C221" t="s">
         <v>13</v>
@@ -8305,7 +8307,7 @@
         <v>5.58</v>
       </c>
       <c r="K221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8313,7 +8315,7 @@
         <v>250</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -8340,7 +8342,7 @@
         <v>5</v>
       </c>
       <c r="K222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8348,7 +8350,7 @@
         <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -8375,7 +8377,7 @@
         <v>6</v>
       </c>
       <c r="K223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8383,7 +8385,7 @@
         <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -8410,7 +8412,7 @@
         <v>5.53</v>
       </c>
       <c r="K224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -8418,7 +8420,7 @@
         <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -8445,7 +8447,7 @@
         <v>5.59</v>
       </c>
       <c r="K225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -8453,7 +8455,7 @@
         <v>254</v>
       </c>
       <c r="B226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -8480,7 +8482,7 @@
         <v>5.72</v>
       </c>
       <c r="K226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -8488,7 +8490,7 @@
         <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -8515,7 +8517,7 @@
         <v>5.19</v>
       </c>
       <c r="K227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -8523,7 +8525,7 @@
         <v>256</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
@@ -8550,7 +8552,7 @@
         <v>5.57</v>
       </c>
       <c r="K228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -8558,7 +8560,7 @@
         <v>257</v>
       </c>
       <c r="B229" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
@@ -8585,7 +8587,7 @@
         <v>3.93</v>
       </c>
       <c r="K229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -8593,7 +8595,7 @@
         <v>258</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
@@ -8620,7 +8622,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -8628,7 +8630,7 @@
         <v>259</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
@@ -8655,7 +8657,7 @@
         <v>5.84</v>
       </c>
       <c r="K231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -8663,7 +8665,7 @@
         <v>260</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -8690,7 +8692,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="K232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -8698,7 +8700,7 @@
         <v>261</v>
       </c>
       <c r="B233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -8725,7 +8727,7 @@
         <v>5.56</v>
       </c>
       <c r="K233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -8733,7 +8735,7 @@
         <v>262</v>
       </c>
       <c r="B234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -8760,7 +8762,7 @@
         <v>3.48</v>
       </c>
       <c r="K234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -8768,7 +8770,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -8795,7 +8797,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="K235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -8803,7 +8805,7 @@
         <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -8830,7 +8832,7 @@
         <v>4.75</v>
       </c>
       <c r="K236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,7 +8840,7 @@
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -8865,7 +8867,7 @@
         <v>5.36</v>
       </c>
       <c r="K237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -8873,7 +8875,7 @@
         <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -8900,7 +8902,7 @@
         <v>6.03</v>
       </c>
       <c r="K238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -8908,7 +8910,7 @@
         <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -8935,7 +8937,7 @@
         <v>5.8</v>
       </c>
       <c r="K239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -8943,7 +8945,7 @@
         <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
@@ -8970,7 +8972,7 @@
         <v>5.94</v>
       </c>
       <c r="K240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -8978,7 +8980,7 @@
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -9005,7 +9007,7 @@
         <v>5.48</v>
       </c>
       <c r="K241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9013,7 +9015,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
@@ -9040,7 +9042,7 @@
         <v>4.7</v>
       </c>
       <c r="K242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9048,7 +9050,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -9075,7 +9077,7 @@
         <v>6</v>
       </c>
       <c r="K243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9083,7 +9085,7 @@
         <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
@@ -9110,7 +9112,7 @@
         <v>5.82</v>
       </c>
       <c r="K244" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9118,7 +9120,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
@@ -9145,7 +9147,7 @@
         <v>5.62</v>
       </c>
       <c r="K245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9153,7 +9155,7 @@
         <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
@@ -9180,7 +9182,7 @@
         <v>3.33</v>
       </c>
       <c r="K246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9188,7 +9190,7 @@
         <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -9215,7 +9217,7 @@
         <v>5.99</v>
       </c>
       <c r="K247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9223,7 +9225,7 @@
         <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -9250,7 +9252,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="K248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9258,7 +9260,7 @@
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -9290,7 +9292,7 @@
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
@@ -9322,7 +9324,7 @@
         <v>280</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
@@ -9349,7 +9351,7 @@
         <v>5.44</v>
       </c>
       <c r="K251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9357,7 +9359,7 @@
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
@@ -9384,7 +9386,7 @@
         <v>5.69</v>
       </c>
       <c r="K252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9392,7 +9394,7 @@
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -9419,7 +9421,7 @@
         <v>4.46</v>
       </c>
       <c r="K253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -9427,7 +9429,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
@@ -9454,7 +9456,7 @@
         <v>6.36</v>
       </c>
       <c r="K254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -9462,7 +9464,7 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -9489,7 +9491,7 @@
         <v>5.7</v>
       </c>
       <c r="K255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -9497,7 +9499,7 @@
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -9524,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="K256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -9532,7 +9534,7 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
@@ -9559,7 +9561,7 @@
         <v>5.58</v>
       </c>
       <c r="K257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -9567,7 +9569,7 @@
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
@@ -9594,7 +9596,7 @@
         <v>5.57</v>
       </c>
       <c r="K258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -9602,7 +9604,7 @@
         <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
@@ -9634,7 +9636,7 @@
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -9661,7 +9663,7 @@
         <v>5.68</v>
       </c>
       <c r="K260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -9669,7 +9671,7 @@
         <v>290</v>
       </c>
       <c r="B261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -9696,7 +9698,7 @@
         <v>4.03</v>
       </c>
       <c r="K261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -9704,7 +9706,7 @@
         <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -9731,7 +9733,7 @@
         <v>3.56</v>
       </c>
       <c r="K262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -9739,7 +9741,7 @@
         <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -9766,7 +9768,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="K263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -9774,7 +9776,7 @@
         <v>293</v>
       </c>
       <c r="B264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -9801,7 +9803,7 @@
         <v>5.14</v>
       </c>
       <c r="K264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -9809,7 +9811,7 @@
         <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -9836,7 +9838,7 @@
         <v>5.92</v>
       </c>
       <c r="K265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -9844,7 +9846,7 @@
         <v>295</v>
       </c>
       <c r="B266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
@@ -9871,7 +9873,7 @@
         <v>4.26</v>
       </c>
       <c r="K266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -9879,7 +9881,7 @@
         <v>296</v>
       </c>
       <c r="B267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
@@ -9906,7 +9908,7 @@
         <v>4.09</v>
       </c>
       <c r="K267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -9914,7 +9916,7 @@
         <v>297</v>
       </c>
       <c r="B268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
@@ -9941,7 +9943,7 @@
         <v>3.88</v>
       </c>
       <c r="K268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -9949,7 +9951,7 @@
         <v>298</v>
       </c>
       <c r="B269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
@@ -9976,7 +9978,7 @@
         <v>4.91</v>
       </c>
       <c r="K269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -9984,7 +9986,7 @@
         <v>299</v>
       </c>
       <c r="B270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
@@ -10016,7 +10018,7 @@
         <v>300</v>
       </c>
       <c r="B271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
@@ -10048,7 +10050,7 @@
         <v>303</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -10075,7 +10077,7 @@
         <v>3.34</v>
       </c>
       <c r="K272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10083,7 +10085,7 @@
         <v>304</v>
       </c>
       <c r="B273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C273" t="s">
         <v>9</v>
@@ -10115,7 +10117,7 @@
         <v>306</v>
       </c>
       <c r="B274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -10147,7 +10149,7 @@
         <v>307</v>
       </c>
       <c r="B275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C275" t="s">
         <v>9</v>
@@ -10174,7 +10176,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10182,7 +10184,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
@@ -10209,7 +10211,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="K276" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10217,7 +10219,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -10244,7 +10246,7 @@
         <v>3.44</v>
       </c>
       <c r="K277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10252,7 +10254,7 @@
         <v>311</v>
       </c>
       <c r="B278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
@@ -10284,7 +10286,7 @@
         <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C279" t="s">
         <v>9</v>
@@ -10311,7 +10313,7 @@
         <v>3.84</v>
       </c>
       <c r="K279" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10319,7 +10321,7 @@
         <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
@@ -10351,7 +10353,7 @@
         <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
@@ -10378,7 +10380,7 @@
         <v>4.5</v>
       </c>
       <c r="K281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10386,7 +10388,7 @@
         <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -10413,7 +10415,7 @@
         <v>4.92</v>
       </c>
       <c r="K282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -10421,7 +10423,7 @@
         <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C283" t="s">
         <v>13</v>
@@ -10448,7 +10450,7 @@
         <v>5.05</v>
       </c>
       <c r="K283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -10456,7 +10458,7 @@
         <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
         <v>13</v>
@@ -10483,7 +10485,7 @@
         <v>5.38</v>
       </c>
       <c r="K284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -10491,7 +10493,7 @@
         <v>318</v>
       </c>
       <c r="B285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
@@ -10518,7 +10520,7 @@
         <v>5.56</v>
       </c>
       <c r="K285" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -10526,7 +10528,7 @@
         <v>319</v>
       </c>
       <c r="B286" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -10553,7 +10555,7 @@
         <v>4.99</v>
       </c>
       <c r="K286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -10561,7 +10563,7 @@
         <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C287" t="s">
         <v>13</v>
@@ -10588,7 +10590,7 @@
         <v>5.88</v>
       </c>
       <c r="K287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -10596,7 +10598,7 @@
         <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C288" t="s">
         <v>13</v>
@@ -10623,7 +10625,7 @@
         <v>5.22</v>
       </c>
       <c r="K288" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -10631,7 +10633,7 @@
         <v>322</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -10658,7 +10660,7 @@
         <v>5.24</v>
       </c>
       <c r="K289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -10666,7 +10668,7 @@
         <v>325</v>
       </c>
       <c r="B290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C290" t="s">
         <v>13</v>
@@ -10693,7 +10695,7 @@
         <v>4.22</v>
       </c>
       <c r="K290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -10701,7 +10703,7 @@
         <v>326</v>
       </c>
       <c r="B291" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C291" t="s">
         <v>13</v>
@@ -10728,7 +10730,7 @@
         <v>4.88</v>
       </c>
       <c r="K291" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -10736,7 +10738,7 @@
         <v>329</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C292" t="s">
         <v>13</v>
@@ -10763,7 +10765,7 @@
         <v>4.46</v>
       </c>
       <c r="K292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -10771,7 +10773,7 @@
         <v>330</v>
       </c>
       <c r="B293" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -10798,7 +10800,7 @@
         <v>6.14</v>
       </c>
       <c r="K293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -10806,7 +10808,7 @@
         <v>331</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -10833,7 +10835,7 @@
         <v>5.38</v>
       </c>
       <c r="K294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -10841,7 +10843,7 @@
         <v>332</v>
       </c>
       <c r="B295" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -10864,11 +10866,11 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295" t="s">
-        <v>14</v>
+      <c r="J295">
+        <v>6.01</v>
       </c>
       <c r="K295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -10876,7 +10878,7 @@
         <v>333</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -10903,7 +10905,7 @@
         <v>5.81</v>
       </c>
       <c r="K296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -10911,7 +10913,7 @@
         <v>334</v>
       </c>
       <c r="B297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -10938,7 +10940,7 @@
         <v>5.7</v>
       </c>
       <c r="K297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -10946,7 +10948,7 @@
         <v>335</v>
       </c>
       <c r="B298" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C298" t="s">
         <v>13</v>
@@ -10973,7 +10975,7 @@
         <v>6</v>
       </c>
       <c r="K298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -10981,7 +10983,7 @@
         <v>336</v>
       </c>
       <c r="B299" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -11008,7 +11010,7 @@
         <v>4.92</v>
       </c>
       <c r="K299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -11016,7 +11018,7 @@
         <v>337</v>
       </c>
       <c r="B300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
@@ -11043,7 +11045,7 @@
         <v>4.92</v>
       </c>
       <c r="K300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -11051,7 +11053,7 @@
         <v>338</v>
       </c>
       <c r="B301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C301" t="s">
         <v>13</v>
@@ -11078,7 +11080,7 @@
         <v>4.92</v>
       </c>
       <c r="K301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -11086,7 +11088,7 @@
         <v>339</v>
       </c>
       <c r="B302" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C302" t="s">
         <v>13</v>
@@ -11113,7 +11115,7 @@
         <v>5.54</v>
       </c>
       <c r="K302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -11121,7 +11123,7 @@
         <v>340</v>
       </c>
       <c r="B303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -11148,7 +11150,7 @@
         <v>5.36</v>
       </c>
       <c r="K303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -11156,7 +11158,7 @@
         <v>341</v>
       </c>
       <c r="B304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C304" t="s">
         <v>13</v>
@@ -11183,7 +11185,7 @@
         <v>5.46</v>
       </c>
       <c r="K304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -11191,7 +11193,7 @@
         <v>342</v>
       </c>
       <c r="B305" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C305" t="s">
         <v>13</v>
@@ -11218,7 +11220,7 @@
         <v>5.47</v>
       </c>
       <c r="K305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -11226,7 +11228,7 @@
         <v>343</v>
       </c>
       <c r="B306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
@@ -11253,7 +11255,7 @@
         <v>3.8</v>
       </c>
       <c r="K306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -11261,7 +11263,7 @@
         <v>344</v>
       </c>
       <c r="B307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -11288,7 +11290,7 @@
         <v>5.58</v>
       </c>
       <c r="K307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -11296,7 +11298,7 @@
         <v>345</v>
       </c>
       <c r="B308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -11323,7 +11325,7 @@
         <v>3.49</v>
       </c>
       <c r="K308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -11331,7 +11333,7 @@
         <v>346</v>
       </c>
       <c r="B309" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -11358,7 +11360,7 @@
         <v>5.14</v>
       </c>
       <c r="K309" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -11366,7 +11368,7 @@
         <v>348</v>
       </c>
       <c r="B310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -11393,7 +11395,7 @@
         <v>3.88</v>
       </c>
       <c r="K310" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -11401,7 +11403,7 @@
         <v>350</v>
       </c>
       <c r="B311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C311" t="s">
         <v>13</v>
@@ -11428,7 +11430,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="K311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -11436,7 +11438,7 @@
         <v>351</v>
       </c>
       <c r="B312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -11468,7 +11470,7 @@
         <v>352</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -11495,7 +11497,7 @@
         <v>5.19</v>
       </c>
       <c r="K313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -11503,7 +11505,7 @@
         <v>353</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -11530,7 +11532,7 @@
         <v>5.38</v>
       </c>
       <c r="K314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -11538,7 +11540,7 @@
         <v>354</v>
       </c>
       <c r="B315" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
@@ -11565,7 +11567,7 @@
         <v>5.46</v>
       </c>
       <c r="K315" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -11573,7 +11575,7 @@
         <v>355</v>
       </c>
       <c r="B316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
@@ -11600,7 +11602,7 @@
         <v>6.01</v>
       </c>
       <c r="K316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -11608,7 +11610,7 @@
         <v>356</v>
       </c>
       <c r="B317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -11640,7 +11642,7 @@
         <v>357</v>
       </c>
       <c r="B318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -11667,7 +11669,7 @@
         <v>5.58</v>
       </c>
       <c r="K318" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -11675,7 +11677,7 @@
         <v>358</v>
       </c>
       <c r="B319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C319" t="s">
         <v>9</v>
@@ -11707,7 +11709,7 @@
         <v>362</v>
       </c>
       <c r="B320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C320" t="s">
         <v>13</v>
@@ -11734,7 +11736,7 @@
         <v>5.92</v>
       </c>
       <c r="K320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
